--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/50.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/50.xlsx
@@ -479,13 +479,13 @@
         <v>-8.584667245540651</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.118254858684788</v>
+        <v>-9.100357680700148</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.784575237286247</v>
+        <v>-1.875200157556675</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.916551657751278</v>
+        <v>-8.247446519773062</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.225556156722575</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.764778957614904</v>
+        <v>-9.73084370864915</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.78436576044078</v>
+        <v>-1.855653349413978</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.742371660744953</v>
+        <v>-8.046610594180985</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.792403803314992</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.33005222510927</v>
+        <v>-10.33964888309225</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.787913774510888</v>
+        <v>-1.86628429932146</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.552323792694458</v>
+        <v>-7.851129420451172</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.318484207972408</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.97330324832896</v>
+        <v>-10.97855326176849</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.782297176591787</v>
+        <v>-1.82859155944013</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.117017815509908</v>
+        <v>-7.427711254246909</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.809062171047228</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.60539962952749</v>
+        <v>-11.64125944701098</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.838620263416892</v>
+        <v>-1.874519357808905</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.864139986121969</v>
+        <v>-7.223209483859148</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.278366217065207</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.3984527818622</v>
+        <v>-12.45349282300882</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.628174587538988</v>
+        <v>-1.666417204139669</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.485850987813136</v>
+        <v>-6.8837915326874</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.740545675445481</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.04167762047621</v>
+        <v>-13.08945143354566</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.530296531494244</v>
+        <v>-1.569782916864889</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.837075012794243</v>
+        <v>-6.267641576350088</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.208840549732163</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.65870476110391</v>
+        <v>-13.74596495954402</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.425466462640543</v>
+        <v>-1.492132468710612</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.420779059335879</v>
+        <v>-5.832754552856473</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.691501713931487</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.30261039946569</v>
+        <v>-14.41807141822687</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.342120862750115</v>
+        <v>-1.398090457398494</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.03327307982647</v>
+        <v>-5.423593904446849</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.197207015271897</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.14938127036</v>
+        <v>-15.28243834414046</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.219249600580516</v>
+        <v>-1.269772797246737</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.46538135176376</v>
+        <v>-4.857796944838816</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.734252058140523</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.92580719808572</v>
+        <v>-16.05405939672327</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9854079795244464</v>
+        <v>-1.053605785026998</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.929028981246768</v>
+        <v>-4.250575939039561</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.30780483046392</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.69592263584174</v>
+        <v>-16.82939866331313</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8964850586234429</v>
+        <v>-0.9837452570635471</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.449366282034451</v>
+        <v>-3.73987138978951</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.929582245875471</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.42119693636483</v>
+        <v>-17.55782820882109</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7159945716474073</v>
+        <v>-0.8278421148242731</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.874705833402568</v>
+        <v>-3.136015105820579</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.604606190801971</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.19427123456308</v>
+        <v>-18.35425917528897</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5318906090870553</v>
+        <v>-0.6646072829936325</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.594163968110062</v>
+        <v>-2.815803562917643</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.335176770982404</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.06463443517818</v>
+        <v>-19.22112673104533</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3675953007262349</v>
+        <v>-0.5131817083262288</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.035554682762136</v>
+        <v>-2.249509095801623</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.120655535417637</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.88613716158797</v>
+        <v>-20.03633205978825</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1188284544305979</v>
+        <v>-0.2620975244276063</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.758377539299953</v>
+        <v>-1.959593141674441</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.959904780023512</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.64041091290549</v>
+        <v>-20.83332599527832</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001188685719504993</v>
+        <v>-0.135979371153259</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.318554717635008</v>
+        <v>-1.524575195152409</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.848791189103248</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.36759668964348</v>
+        <v>-21.58029424161016</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2684811405361844</v>
+        <v>0.1262070855551472</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9403835500517503</v>
+        <v>-1.108894579927607</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.787297014792721</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.00716877576464</v>
+        <v>-22.18980640040672</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4201816535632644</v>
+        <v>0.2516313467788829</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7044471605410049</v>
+        <v>-0.8180883492071872</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.772013529499412</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.62454940856908</v>
+        <v>-22.81938905945964</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6092606912034723</v>
+        <v>0.4350414172886234</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3699388229349039</v>
+        <v>-0.5152764767809049</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.798793378838563</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.07890468638834</v>
+        <v>-23.28228051873171</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7824980424051916</v>
+        <v>0.6222220710167811</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2573188338903762</v>
+        <v>-0.4032063644557298</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.862587836676352</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.52457976742354</v>
+        <v>-23.72096431004942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8667077342831736</v>
+        <v>0.727942416463719</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.124510513863907</v>
+        <v>-0.2690233526308793</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.959515955448437</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.00760718846618</v>
+        <v>-24.16001468584671</v>
       </c>
       <c r="F24" t="n">
-        <v>1.015920709770326</v>
+        <v>0.870229563747598</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1480373820704887</v>
+        <v>-0.2138262038501622</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.083865212106744</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.25636094245897</v>
+        <v>-24.41702968293263</v>
       </c>
       <c r="F25" t="n">
-        <v>1.071261873882302</v>
+        <v>0.9475396120279904</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03240073569417994</v>
+        <v>-0.04968800312344251</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.231039681096251</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.5293485490118</v>
+        <v>-24.70820249813262</v>
       </c>
       <c r="F26" t="n">
-        <v>1.209163099714202</v>
+        <v>1.080217009026042</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.06992870331675101</v>
+        <v>-0.1398285081887265</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.39431335985241</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.57294591747475</v>
+        <v>-24.74060594766589</v>
       </c>
       <c r="F27" t="n">
-        <v>1.177388080717333</v>
+        <v>1.045823529460828</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2733176279629655</v>
+        <v>-0.3333982057036464</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.565995085717744</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.6598133468296</v>
+        <v>-24.8283374690083</v>
       </c>
       <c r="F28" t="n">
-        <v>1.105904107201509</v>
+        <v>0.9567042240171987</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6327406178768712</v>
+        <v>-0.6777650473495672</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.738098041093102</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.47501549221864</v>
+        <v>-24.62861438915777</v>
       </c>
       <c r="F29" t="n">
-        <v>1.114152257991796</v>
+        <v>0.969207373231047</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.675382248232373</v>
+        <v>-0.6963953942933434</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.905316236441492</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.21362766598358</v>
+        <v>-24.39102836948896</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9980366240885278</v>
+        <v>0.8431154045623832</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9971124982649494</v>
+        <v>-1.006224741042791</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.062433864018136</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.99425303956762</v>
+        <v>-24.14004892401308</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9288307112671639</v>
+        <v>0.7742367993120625</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.202530729851631</v>
+        <v>-1.172300602590086</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.206640898941838</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.64509441508162</v>
+        <v>-23.78910974634061</v>
       </c>
       <c r="F32" t="n">
-        <v>0.90521219694069</v>
+        <v>0.7568371288354084</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.45161179141547</v>
+        <v>-1.440784456965363</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.335484992828709</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.31053370826416</v>
+        <v>-23.41024468670674</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8654770578160514</v>
+        <v>0.6994011962687562</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.729692303773732</v>
+        <v>-1.739590084722076</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.446717494361393</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.86785676457971</v>
+        <v>-23.00342756050579</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8048727879617014</v>
+        <v>0.6478698922837224</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.957629296248182</v>
+        <v>-1.949381145457895</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.538903495580717</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.4992691626766</v>
+        <v>-22.60184735544152</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7172590973448706</v>
+        <v>0.5748672116382578</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.220719121852668</v>
+        <v>-2.152979546949577</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.613078236542034</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.93059189644339</v>
+        <v>-22.03421747343565</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7640509877011995</v>
+        <v>0.6130836436332563</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.507885692383087</v>
+        <v>-2.425954061199566</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.670261812618493</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.48766619900495</v>
+        <v>-21.56682226198603</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7801152432879974</v>
+        <v>0.6325388056560611</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.690222194059806</v>
+        <v>-2.627588617264989</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.713765384175339</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.99724162685673</v>
+        <v>-21.0822630415109</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8777576378815904</v>
+        <v>0.7350122599982511</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.823226898628902</v>
+        <v>-2.773816547704227</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.747011602978859</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.50719673149093</v>
+        <v>-20.5878584092988</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8959952157401149</v>
+        <v>0.7394243660559128</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.87479747952246</v>
+        <v>-2.823109067903326</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.773178407197628</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.85307909691261</v>
+        <v>-19.94599517018034</v>
       </c>
       <c r="F40" t="n">
-        <v>0.91734876167497</v>
+        <v>0.7633440033477463</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.990232313677959</v>
+        <v>-2.936514595118357</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.79640682525504</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.32213384746925</v>
+        <v>-19.42311477928748</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9872616588497872</v>
+        <v>0.8405100362968798</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.142155395853349</v>
+        <v>-3.093517490796336</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.822657491184443</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.55869548416252</v>
+        <v>-18.64959534279263</v>
       </c>
       <c r="F42" t="n">
-        <v>0.966104497457558</v>
+        <v>0.8307824552854773</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.354970778545606</v>
+        <v>-3.336916492926866</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.857035258233881</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.042321967782</v>
+        <v>-18.15132848124221</v>
       </c>
       <c r="F43" t="n">
-        <v>1.068303013440072</v>
+        <v>0.9122951327780638</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.394889209910029</v>
+        <v>-3.392859902969561</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.905536198884279</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.47847576129739</v>
+        <v>-17.55575962497209</v>
       </c>
       <c r="F44" t="n">
-        <v>1.028790443463742</v>
+        <v>0.9001192911352586</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.547637107164447</v>
+        <v>-3.566293638713906</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.971658605326211</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.83806576779435</v>
+        <v>-16.94104982194737</v>
       </c>
       <c r="F45" t="n">
-        <v>1.042943222835648</v>
+        <v>0.9134079785196105</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.718491659248972</v>
+        <v>-3.743655065310769</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.055739210539578</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.36492303539722</v>
+        <v>-16.44694631270063</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8845918199649715</v>
+        <v>0.7871981791253713</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.87207746388526</v>
+        <v>-3.915530817016949</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.157089728526161</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.75839592164857</v>
+        <v>-15.83382067831976</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9581312850269468</v>
+        <v>0.8574907530825985</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.85804251523893</v>
+        <v>-3.940890607621372</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.274315630640676</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.1277004168541</v>
+        <v>-15.23994072911622</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9334392018674514</v>
+        <v>0.8256502725715207</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.011078443155866</v>
+        <v>-4.126879861790933</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.404095949938296</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.61448214545844</v>
+        <v>-14.6854424268606</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8622825359226702</v>
+        <v>0.7678608478281418</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.109205252954602</v>
+        <v>-4.240233019794597</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.542933676498826</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.08902257090577</v>
+        <v>-14.13758192214573</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8595855215372746</v>
+        <v>0.7722729538858035</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.196478543697549</v>
+        <v>-4.365657281018333</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.685196240290584</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.59975012140762</v>
+        <v>-13.61227945522715</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9648083594762271</v>
+        <v>0.8707925327697922</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.297027429522005</v>
+        <v>-4.471456180282321</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.823093380932391</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.9789523975615</v>
+        <v>-13.00503226482221</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8635917662068429</v>
+        <v>0.7887692554663783</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.408154896042576</v>
+        <v>-4.602758885481992</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.950390442568097</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.56655795034997</v>
+        <v>-12.57293390183389</v>
       </c>
       <c r="F53" t="n">
-        <v>0.876396038386051</v>
+        <v>0.7958914682122773</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.600978332295518</v>
+        <v>-4.831180293161586</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.06207564026092</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.95060437855528</v>
+        <v>-11.98029772140032</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8493997099264118</v>
+        <v>0.7657398947677821</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.773574160657992</v>
+        <v>-4.979594638175394</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.154186247188153</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.56359590655386</v>
+        <v>-11.56779853576605</v>
       </c>
       <c r="F55" t="n">
-        <v>0.804702588024759</v>
+        <v>0.7094429925483601</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.994532955717803</v>
+        <v>-5.204978631595708</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.224887541732045</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.17412608161819</v>
+        <v>-11.15452690426413</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7306001539405894</v>
+        <v>0.6409571563832911</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.201286602194341</v>
+        <v>-5.441661282368432</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.27229416667518</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.61856730283239</v>
+        <v>-10.59373120434163</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7098357616336118</v>
+        <v>0.6279434073586153</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.280861618866352</v>
+        <v>-5.518552376957889</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.294203239412686</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.37494573155355</v>
+        <v>-10.31671116851355</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6278779458444067</v>
+        <v>0.5457368378154174</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.424012858137785</v>
+        <v>-5.672596412193638</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.291110222122613</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.867579719528138</v>
+        <v>-9.785569534527566</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6572177965127148</v>
+        <v>0.5719869050130781</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.640598824048459</v>
+        <v>-5.878224120625787</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.26463594418443</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.721207773757641</v>
+        <v>-9.60090260294502</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6464166466682908</v>
+        <v>0.5726284278523227</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.695926895857593</v>
+        <v>-5.910483554827801</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.218119784496865</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.338009161883161</v>
+        <v>-9.204729518954389</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6832452945620663</v>
+        <v>0.6050973388998033</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.712004243747233</v>
+        <v>-5.909318339874887</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.156657001775107</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.057126896716769</v>
+        <v>-8.922524931200984</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6463904620626073</v>
+        <v>0.5882606374453436</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.813757621433128</v>
+        <v>-6.015889685006537</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.084726040141055</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.747860518989516</v>
+        <v>-8.619385751203657</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6085013376386521</v>
+        <v>0.5323695966140151</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.797496981303705</v>
+        <v>-5.986720034275171</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.00561101357096</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.440387786751579</v>
+        <v>-8.309608773665577</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5053601758515341</v>
+        <v>0.4296997577291992</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.725868992456621</v>
+        <v>-5.903662465047261</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.924885980893078</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.322884368747088</v>
+        <v>-8.187287388215331</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3737956245950289</v>
+        <v>0.3048908347390246</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.753362828424246</v>
+        <v>-5.904055234132513</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.847419495154279</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.125910672493319</v>
+        <v>-7.992631029564548</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3252886425664338</v>
+        <v>0.2488819631821205</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.743321032144642</v>
+        <v>-5.891080762016363</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.779159881900302</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.990366061172929</v>
+        <v>-7.839437994013511</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2333806766175168</v>
+        <v>0.1687701620935987</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.697262310747449</v>
+        <v>-5.868404893494493</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.72564387308629</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.851351989599482</v>
+        <v>-7.752609841567184</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1766779130100012</v>
+        <v>0.108964522712594</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.644618161020869</v>
+        <v>-5.804435901809819</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.690339921315013</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.790603704413872</v>
+        <v>-7.670429456629669</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1670157935128074</v>
+        <v>0.0965661119214794</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.556912824284146</v>
+        <v>-5.688150067969608</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.6734749176975</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.799480285740563</v>
+        <v>-7.679908283887078</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05996003317601331</v>
+        <v>-0.003485266394991214</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.452017293916237</v>
+        <v>-5.563747006367527</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.677270550581456</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.862126954838222</v>
+        <v>-7.715702639856358</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06002549469022194</v>
+        <v>-0.02317608986894722</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.279722588519122</v>
+        <v>-5.401585743369908</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.701824013338447</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.882184362791747</v>
+        <v>-7.772287572738298</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.01376272412574618</v>
+        <v>-0.09380906370005936</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.195002296830313</v>
+        <v>-5.279120342588403</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.748307222955566</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.09125534687127</v>
+        <v>-7.953615967096204</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.05203152533211147</v>
+        <v>-0.1480766589790139</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.92700285766018</v>
+        <v>-4.991168233887479</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.816895829922546</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.219834853079862</v>
+        <v>-8.111168739493536</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.09737017007300885</v>
+        <v>-0.1718653732424302</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.791576077065366</v>
+        <v>-4.837281306285831</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.90602855276329</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.557066389677042</v>
+        <v>-8.446187676910464</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1890555668736165</v>
+        <v>-0.3016624636153024</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.543529307426024</v>
+        <v>-4.559384086167354</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.010915076706803</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.819239754082606</v>
+        <v>-8.71937166800592</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.175937079426207</v>
+        <v>-0.2665619996966349</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.238413189699597</v>
+        <v>-4.215645675057836</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.131281401124086</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.335744193491541</v>
+        <v>-9.241610536059531</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2498693135734341</v>
+        <v>-0.3675560238177097</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.027614021644966</v>
+        <v>-4.025833468458491</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.266074587383818</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.787611933770874</v>
+        <v>-9.714569976216884</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2028417617659541</v>
+        <v>-0.3268258696770999</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.935012163645438</v>
+        <v>-3.914483432789611</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.417183305872567</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.22413549511971</v>
+        <v>-10.12079794878996</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.26880078348257</v>
+        <v>-0.4079588703872764</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.785563526707134</v>
+        <v>-3.764707488280265</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.586252521491987</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.82735025624939</v>
+        <v>-10.74359879497087</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.326681854345841</v>
+        <v>-0.4671622638375617</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.457156202225278</v>
+        <v>-3.410809450165567</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.773850929581165</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.51357021739562</v>
+        <v>-11.43920593725462</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3437673095542935</v>
+        <v>-0.5001417746958696</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.296526738660141</v>
+        <v>-3.233042162180611</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.976125915950246</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.3541484290458</v>
+        <v>-12.27043624467581</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4103416695044705</v>
+        <v>-0.56818247256432</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.955969757141162</v>
+        <v>-2.869455819963036</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.194917650433563</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.27321499623213</v>
+        <v>-13.19883762378829</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3919077071033202</v>
+        <v>-0.5750952084647514</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.811221256923039</v>
+        <v>-2.695053253808403</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.42935593672019</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.23356159427842</v>
+        <v>-14.16804771085842</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4440412570190734</v>
+        <v>-0.6259326203991736</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.536518558697942</v>
+        <v>-2.410348036212228</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.68051250791527</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.45245498884312</v>
+        <v>-15.37544606352809</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5032184658636752</v>
+        <v>-0.6919571036299983</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.336808571150253</v>
+        <v>-2.180997075030871</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.947995031701391</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.51490845675203</v>
+        <v>-16.45137151106113</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.59905412266511</v>
+        <v>-0.8007017710333749</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.104551118738033</v>
+        <v>-1.951489006215413</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.229839750595975</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.69706484954284</v>
+        <v>-17.64152730088824</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5278974567203288</v>
+        <v>-0.7306710431329823</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.037413789765661</v>
+        <v>-1.868444529290344</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.518195889890755</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.07290877057415</v>
+        <v>-19.02728209517074</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6830936146061497</v>
+        <v>-0.8876084772967526</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.010338907488971</v>
+        <v>-1.820448147072577</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.813532489779154</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.61541770678064</v>
+        <v>-20.59289894589287</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6640443139714383</v>
+        <v>-0.8602717489632286</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.996880020167677</v>
+        <v>-1.810799119878225</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.11265335353847</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.25389322281697</v>
+        <v>-22.24361576508621</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7066597597212566</v>
+        <v>-0.9180088044952406</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.012250383703864</v>
+        <v>-1.825357760638224</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.416648821378393</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.96431094296859</v>
+        <v>-23.94952973306028</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8433957706002436</v>
+        <v>-1.033967330764408</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.052784153301848</v>
+        <v>-1.843346584742755</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.726048953192389</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.70062523814114</v>
+        <v>-25.68488829012539</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8934869212726876</v>
+        <v>-1.085459357840917</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.12349568095001</v>
+        <v>-1.904409085196566</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.040939474542148</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.72679002592667</v>
+        <v>-27.73071771677919</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.067954948941529</v>
+        <v>-1.245159267904292</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.311553518968563</v>
+        <v>-2.070210008384185</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.354719747807344</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.77369302141349</v>
+        <v>-29.77506771321187</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.096875845918902</v>
+        <v>-1.257020894278895</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.370979481567158</v>
+        <v>-2.133066154327312</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.671626225630403</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.9811469266484</v>
+        <v>-31.99557464437998</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.340353401866482</v>
+        <v>-1.52761260941169</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.583624664322473</v>
+        <v>-2.344323552981403</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.990264541887798</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.23798499820229</v>
+        <v>-34.26724629505355</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.465555093941908</v>
+        <v>-1.622374697380103</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.801820983482679</v>
+        <v>-2.523884486455676</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.31094350354438</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.45189340873817</v>
+        <v>-36.4483584869709</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.631722601609095</v>
+        <v>-1.769244150658586</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.894435933785049</v>
+        <v>-2.618829866663874</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.63395376659583</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.78769115873052</v>
+        <v>-38.80281276851271</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.900180271378688</v>
+        <v>-2.054970567876416</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.152092453710218</v>
+        <v>-2.865881621287245</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.94976981127088</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.08923944448891</v>
+        <v>-41.11628814215992</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.912199005387393</v>
+        <v>-2.074373360687854</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.379911615459094</v>
+        <v>-3.061362795017057</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.25032678082813</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.42312571826637</v>
+        <v>-43.46054351978802</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.245751604886048</v>
+        <v>-2.382539984976402</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.457719171247472</v>
+        <v>-3.185988425767447</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.52065294733688</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.76007559090878</v>
+        <v>-45.7587925452303</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.285944974610147</v>
+        <v>-2.445383038616687</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.71225972309631</v>
+        <v>-3.445831360267185</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.76250005807711</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.28800288510347</v>
+        <v>-48.26358574030365</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.544020448226251</v>
+        <v>-2.677745229451642</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.750777278056668</v>
+        <v>-3.507797229617074</v>
       </c>
     </row>
   </sheetData>
